--- a/feature_selection/参数选择结果对比.xlsx
+++ b/feature_selection/参数选择结果对比.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="69" uniqueCount="64">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="72" uniqueCount="67">
   <si>
     <t xml:space="preserve"> Corr.</t>
   </si>
@@ -250,6 +250,17 @@
   </si>
   <si>
     <t xml:space="preserve">     2.训练模型，推荐RF和RandomizedLasso，不容易遗漏重要变量</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>对于特征选择任务，在许多数据集和环境下，稳定性选择往往是性能最好的方法之一</t>
+  </si>
+  <si>
+    <t>mean_cross_stabilu</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">     3.训练模型，也可将RandomizedLasso和MIC（RF_cross）取均值，不容易遗漏非线性变量</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -374,17 +385,8 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
@@ -397,6 +399,15 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -806,10 +817,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A3:M31"/>
+  <dimension ref="A3:N32"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D41" sqref="D41"/>
+    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="A24" sqref="A24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -822,7 +833,7 @@
     <col min="11" max="11" width="9.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:14" x14ac:dyDescent="0.15">
       <c r="B3" s="7" t="s">
         <v>24</v>
       </c>
@@ -836,7 +847,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A4" s="1"/>
       <c r="B4" s="3" t="s">
         <v>0</v>
@@ -847,22 +858,22 @@
       <c r="D4" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="E4" s="13" t="s">
+      <c r="E4" s="10" t="s">
         <v>3</v>
       </c>
-      <c r="F4" s="13" t="s">
+      <c r="F4" s="10" t="s">
         <v>4</v>
       </c>
       <c r="G4" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="H4" s="13" t="s">
+      <c r="H4" s="10" t="s">
         <v>55</v>
       </c>
       <c r="I4" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="J4" s="14" t="s">
+      <c r="J4" s="11" t="s">
         <v>7</v>
       </c>
       <c r="K4" s="1" t="s">
@@ -874,8 +885,11 @@
       <c r="M4" t="s">
         <v>54</v>
       </c>
-    </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="N4" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="5" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A5" s="2" t="s">
         <v>9</v>
       </c>
@@ -909,16 +923,20 @@
       <c r="K5" s="2">
         <v>0.7</v>
       </c>
-      <c r="L5" s="15">
-        <f>SUM(E5+F5+J5)/8</f>
+      <c r="L5" s="12">
+        <f t="shared" ref="L5:L18" si="0">SUM(E5+F5+J5)/8</f>
         <v>0.21375</v>
       </c>
-      <c r="M5" s="15">
+      <c r="M5" s="12">
         <f>(F5+J5)/2</f>
         <v>0.66</v>
       </c>
-    </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="N5" s="8">
+        <f>(H5+J5)/2</f>
+        <v>0.65</v>
+      </c>
+    </row>
+    <row r="6" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A6" s="2" t="s">
         <v>10</v>
       </c>
@@ -952,16 +970,20 @@
       <c r="K6" s="2">
         <v>0.7</v>
       </c>
-      <c r="L6" s="15">
-        <f>SUM(E6+F6+J6)/8</f>
+      <c r="L6" s="12">
+        <f t="shared" si="0"/>
         <v>0.25</v>
       </c>
-      <c r="M6" s="15">
-        <f t="shared" ref="M6:M18" si="0">(F6+J6)/2</f>
+      <c r="M6" s="12">
+        <f t="shared" ref="M6:M18" si="1">(F6+J6)/2</f>
         <v>0.69500000000000006</v>
       </c>
-    </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="N6" s="8">
+        <f t="shared" ref="N6:N18" si="2">(H6+J6)/2</f>
+        <v>0.68500000000000005</v>
+      </c>
+    </row>
+    <row r="7" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A7" s="2" t="s">
         <v>11</v>
       </c>
@@ -995,16 +1017,20 @@
       <c r="K7" s="2">
         <v>0.25</v>
       </c>
-      <c r="L7" s="15">
-        <f>SUM(E7+F7+J7)/8</f>
+      <c r="L7" s="12">
+        <f t="shared" si="0"/>
         <v>5.8750000000000004E-2</v>
       </c>
-      <c r="M7" s="15">
-        <f t="shared" si="0"/>
+      <c r="M7" s="12">
+        <f t="shared" si="1"/>
         <v>6.5000000000000002E-2</v>
       </c>
-    </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="N7" s="8">
+        <f t="shared" si="2"/>
+        <v>0.17499999999999999</v>
+      </c>
+    </row>
+    <row r="8" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A8" s="2" t="s">
         <v>12</v>
       </c>
@@ -1038,16 +1064,20 @@
       <c r="K8" s="2">
         <v>0.89</v>
       </c>
-      <c r="L8" s="15">
-        <f>SUM(E8+F8+J8)/8</f>
+      <c r="L8" s="12">
+        <f t="shared" si="0"/>
         <v>0.32</v>
       </c>
-      <c r="M8" s="15">
-        <f t="shared" si="0"/>
+      <c r="M8" s="12">
+        <f t="shared" si="1"/>
         <v>0.78</v>
       </c>
-    </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="N8" s="8">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A9" s="2" t="s">
         <v>13</v>
       </c>
@@ -1081,16 +1111,20 @@
       <c r="K9" s="2">
         <v>0.45</v>
       </c>
-      <c r="L9" s="15">
-        <f>SUM(E9+F9+J9)/8</f>
+      <c r="L9" s="12">
+        <f t="shared" si="0"/>
         <v>0.13</v>
       </c>
-      <c r="M9" s="15">
-        <f t="shared" si="0"/>
+      <c r="M9" s="12">
+        <f t="shared" si="1"/>
         <v>0.42000000000000004</v>
       </c>
-    </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="N9" s="8">
+        <f t="shared" si="2"/>
+        <v>0.37</v>
+      </c>
+    </row>
+    <row r="10" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A10" s="1" t="s">
         <v>14</v>
       </c>
@@ -1106,7 +1140,7 @@
       <c r="E10" s="1">
         <v>0</v>
       </c>
-      <c r="F10" s="11">
+      <c r="F10" s="9">
         <v>0.01</v>
       </c>
       <c r="G10" s="1">
@@ -1118,194 +1152,214 @@
       <c r="I10" s="1">
         <v>0.05</v>
       </c>
-      <c r="J10" s="11">
+      <c r="J10" s="9">
         <v>0</v>
       </c>
       <c r="K10" s="1">
         <v>7.0000000000000007E-2</v>
       </c>
       <c r="L10" s="5">
-        <f>SUM(E10+F10+J10)/8</f>
+        <f t="shared" si="0"/>
         <v>1.25E-3</v>
       </c>
       <c r="M10" s="5">
+        <f t="shared" si="1"/>
+        <v>5.0000000000000001E-3</v>
+      </c>
+      <c r="N10">
+        <f t="shared" si="2"/>
+        <v>3.5000000000000003E-2</v>
+      </c>
+    </row>
+    <row r="11" spans="1:14" x14ac:dyDescent="0.15">
+      <c r="A11" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="B11" s="1">
+        <v>0.01</v>
+      </c>
+      <c r="C11" s="1">
+        <v>0</v>
+      </c>
+      <c r="D11" s="1">
+        <v>0</v>
+      </c>
+      <c r="E11" s="1">
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="F11" s="9">
+        <v>0.02</v>
+      </c>
+      <c r="G11" s="1">
+        <v>0</v>
+      </c>
+      <c r="H11" s="1">
+        <v>0.08</v>
+      </c>
+      <c r="I11" s="1">
+        <v>0.01</v>
+      </c>
+      <c r="J11" s="9">
+        <v>0</v>
+      </c>
+      <c r="K11" s="1">
+        <v>0.01</v>
+      </c>
+      <c r="L11" s="5">
+        <f t="shared" si="0"/>
+        <v>1.1250000000000001E-2</v>
+      </c>
+      <c r="M11" s="5">
+        <f t="shared" si="1"/>
+        <v>0.01</v>
+      </c>
+      <c r="N11">
+        <f t="shared" si="2"/>
+        <v>0.04</v>
+      </c>
+    </row>
+    <row r="12" spans="1:14" x14ac:dyDescent="0.15">
+      <c r="A12" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="B12" s="1">
+        <v>0.02</v>
+      </c>
+      <c r="C12" s="1">
+        <v>0</v>
+      </c>
+      <c r="D12" s="1">
+        <v>0.03</v>
+      </c>
+      <c r="E12" s="1">
+        <v>0.05</v>
+      </c>
+      <c r="F12" s="9">
+        <v>0.01</v>
+      </c>
+      <c r="G12" s="1">
+        <v>0.56000000000000005</v>
+      </c>
+      <c r="H12" s="1">
+        <v>0.03</v>
+      </c>
+      <c r="I12" s="1">
+        <v>0.09</v>
+      </c>
+      <c r="J12" s="9">
+        <v>0</v>
+      </c>
+      <c r="K12" s="1">
+        <v>0.1</v>
+      </c>
+      <c r="L12" s="5">
+        <f t="shared" si="0"/>
+        <v>7.5000000000000006E-3</v>
+      </c>
+      <c r="M12" s="5">
+        <f t="shared" si="1"/>
+        <v>5.0000000000000001E-3</v>
+      </c>
+      <c r="N12">
+        <f t="shared" si="2"/>
+        <v>1.4999999999999999E-2</v>
+      </c>
+    </row>
+    <row r="13" spans="1:14" x14ac:dyDescent="0.15">
+      <c r="A13" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="B13" s="1">
+        <v>0.01</v>
+      </c>
+      <c r="C13" s="1">
+        <v>0</v>
+      </c>
+      <c r="D13" s="1">
+        <v>0</v>
+      </c>
+      <c r="E13" s="1">
+        <v>0.09</v>
+      </c>
+      <c r="F13" s="9">
+        <v>0.01</v>
+      </c>
+      <c r="G13" s="1">
+        <v>0.11</v>
+      </c>
+      <c r="H13" s="1">
+        <v>0</v>
+      </c>
+      <c r="I13" s="1">
+        <v>0</v>
+      </c>
+      <c r="J13" s="9">
+        <v>0</v>
+      </c>
+      <c r="K13" s="1">
+        <v>0.03</v>
+      </c>
+      <c r="L13" s="5">
+        <f t="shared" si="0"/>
+        <v>1.2499999999999999E-2</v>
+      </c>
+      <c r="M13" s="5">
+        <f t="shared" si="1"/>
+        <v>5.0000000000000001E-3</v>
+      </c>
+      <c r="N13">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:14" x14ac:dyDescent="0.15">
+      <c r="A14" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B14" s="1">
+        <v>0</v>
+      </c>
+      <c r="C14" s="1">
+        <v>0</v>
+      </c>
+      <c r="D14" s="1">
+        <v>0.01</v>
+      </c>
+      <c r="E14" s="1">
+        <v>0.04</v>
+      </c>
+      <c r="F14" s="9">
+        <v>0</v>
+      </c>
+      <c r="G14" s="1">
+        <v>0.33</v>
+      </c>
+      <c r="H14" s="1">
+        <v>0.03</v>
+      </c>
+      <c r="I14" s="1">
+        <v>0.01</v>
+      </c>
+      <c r="J14" s="9">
+        <v>0</v>
+      </c>
+      <c r="K14" s="1">
+        <v>0.05</v>
+      </c>
+      <c r="L14" s="5">
         <f t="shared" si="0"/>
         <v>5.0000000000000001E-3</v>
       </c>
-    </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="A11" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="B11" s="1">
-        <v>0.01</v>
-      </c>
-      <c r="C11" s="1">
-        <v>0</v>
-      </c>
-      <c r="D11" s="1">
-        <v>0</v>
-      </c>
-      <c r="E11" s="1">
-        <v>7.0000000000000007E-2</v>
-      </c>
-      <c r="F11" s="11">
-        <v>0.02</v>
-      </c>
-      <c r="G11" s="1">
-        <v>0</v>
-      </c>
-      <c r="H11" s="1">
-        <v>0.08</v>
-      </c>
-      <c r="I11" s="1">
-        <v>0.01</v>
-      </c>
-      <c r="J11" s="11">
-        <v>0</v>
-      </c>
-      <c r="K11" s="1">
-        <v>0.01</v>
-      </c>
-      <c r="L11" s="5">
-        <f>SUM(E11+F11+J11)/8</f>
-        <v>1.1250000000000001E-2</v>
-      </c>
-      <c r="M11" s="5">
-        <f t="shared" si="0"/>
-        <v>0.01</v>
-      </c>
-    </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="A12" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="B12" s="1">
-        <v>0.02</v>
-      </c>
-      <c r="C12" s="1">
-        <v>0</v>
-      </c>
-      <c r="D12" s="1">
-        <v>0.03</v>
-      </c>
-      <c r="E12" s="1">
-        <v>0.05</v>
-      </c>
-      <c r="F12" s="11">
-        <v>0.01</v>
-      </c>
-      <c r="G12" s="1">
-        <v>0.56000000000000005</v>
-      </c>
-      <c r="H12" s="1">
-        <v>0.03</v>
-      </c>
-      <c r="I12" s="1">
-        <v>0.09</v>
-      </c>
-      <c r="J12" s="11">
-        <v>0</v>
-      </c>
-      <c r="K12" s="1">
-        <v>0.1</v>
-      </c>
-      <c r="L12" s="5">
-        <f>SUM(E12+F12+J12)/8</f>
-        <v>7.5000000000000006E-3</v>
-      </c>
-      <c r="M12" s="5">
-        <f t="shared" si="0"/>
-        <v>5.0000000000000001E-3</v>
-      </c>
-    </row>
-    <row r="13" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="A13" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="B13" s="1">
-        <v>0.01</v>
-      </c>
-      <c r="C13" s="1">
-        <v>0</v>
-      </c>
-      <c r="D13" s="1">
-        <v>0</v>
-      </c>
-      <c r="E13" s="1">
-        <v>0.09</v>
-      </c>
-      <c r="F13" s="11">
-        <v>0.01</v>
-      </c>
-      <c r="G13" s="1">
-        <v>0.11</v>
-      </c>
-      <c r="H13" s="1">
-        <v>0</v>
-      </c>
-      <c r="I13" s="1">
-        <v>0</v>
-      </c>
-      <c r="J13" s="11">
-        <v>0</v>
-      </c>
-      <c r="K13" s="1">
-        <v>0.03</v>
-      </c>
-      <c r="L13" s="5">
-        <f>SUM(E13+F13+J13)/8</f>
-        <v>1.2499999999999999E-2</v>
-      </c>
-      <c r="M13" s="5">
-        <f t="shared" si="0"/>
-        <v>5.0000000000000001E-3</v>
-      </c>
-    </row>
-    <row r="14" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="A14" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="B14" s="2">
-        <v>0</v>
-      </c>
-      <c r="C14" s="2">
-        <v>0</v>
-      </c>
-      <c r="D14" s="2">
-        <v>0.01</v>
-      </c>
-      <c r="E14" s="2">
-        <v>0.04</v>
-      </c>
-      <c r="F14" s="4">
-        <v>0</v>
-      </c>
-      <c r="G14" s="2">
-        <v>0.33</v>
-      </c>
-      <c r="H14" s="2">
-        <v>0.03</v>
-      </c>
-      <c r="I14" s="2">
-        <v>0.01</v>
-      </c>
-      <c r="J14" s="4">
-        <v>0</v>
-      </c>
-      <c r="K14" s="2">
-        <v>0.05</v>
-      </c>
-      <c r="L14" s="15">
-        <f>SUM(E14+F14+J14)/8</f>
-        <v>5.0000000000000001E-3</v>
-      </c>
-      <c r="M14" s="15">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="M14" s="5">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="N14">
+        <f t="shared" si="2"/>
+        <v>1.4999999999999999E-2</v>
+      </c>
+    </row>
+    <row r="15" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A15" s="2" t="s">
         <v>19</v>
       </c>
@@ -1339,16 +1393,20 @@
       <c r="K15" s="2">
         <v>0.46</v>
       </c>
-      <c r="L15" s="15">
-        <f>SUM(E15+F15+J15)/8</f>
+      <c r="L15" s="12">
+        <f t="shared" si="0"/>
         <v>0.14874999999999999</v>
       </c>
-      <c r="M15" s="15">
-        <f t="shared" si="0"/>
+      <c r="M15" s="12">
+        <f t="shared" si="1"/>
         <v>0.38</v>
       </c>
-    </row>
-    <row r="16" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="N15" s="8">
+        <f t="shared" si="2"/>
+        <v>0.41000000000000003</v>
+      </c>
+    </row>
+    <row r="16" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A16" s="2" t="s">
         <v>20</v>
       </c>
@@ -1382,16 +1440,20 @@
       <c r="K16" s="2">
         <v>0.43</v>
       </c>
-      <c r="L16" s="15">
-        <f>SUM(E16+F16+J16)/8</f>
+      <c r="L16" s="12">
+        <f t="shared" si="0"/>
         <v>0.19</v>
       </c>
-      <c r="M16" s="15">
-        <f t="shared" si="0"/>
+      <c r="M16" s="12">
+        <f t="shared" si="1"/>
         <v>0.40500000000000003</v>
       </c>
-    </row>
-    <row r="17" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="N16" s="8">
+        <f t="shared" si="2"/>
+        <v>0.54</v>
+      </c>
+    </row>
+    <row r="17" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A17" s="2" t="s">
         <v>21</v>
       </c>
@@ -1425,16 +1487,20 @@
       <c r="K17" s="2">
         <v>0.21</v>
       </c>
-      <c r="L17" s="15">
-        <f>SUM(E17+F17+J17)/8</f>
+      <c r="L17" s="12">
+        <f t="shared" si="0"/>
         <v>3.7500000000000006E-2</v>
       </c>
-      <c r="M17" s="15">
-        <f t="shared" si="0"/>
+      <c r="M17" s="12">
+        <f t="shared" si="1"/>
         <v>3.5000000000000003E-2</v>
       </c>
-    </row>
-    <row r="18" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="N17" s="8">
+        <f t="shared" si="2"/>
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="18" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A18" s="2" t="s">
         <v>22</v>
       </c>
@@ -1468,248 +1534,260 @@
       <c r="K18" s="2">
         <v>0.62</v>
       </c>
-      <c r="L18" s="15">
-        <f>SUM(E18+F18+J18)/8</f>
+      <c r="L18" s="12">
+        <f t="shared" si="0"/>
         <v>0.32750000000000001</v>
       </c>
-      <c r="M18" s="15">
-        <f t="shared" si="0"/>
+      <c r="M18" s="12">
+        <f t="shared" si="1"/>
         <v>0.81</v>
       </c>
-    </row>
-    <row r="19" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="N18" s="8">
+        <f t="shared" si="2"/>
+        <v>0.79</v>
+      </c>
+    </row>
+    <row r="19" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A19" s="6" t="s">
         <v>56</v>
       </c>
       <c r="E19" s="6">
         <v>0.1</v>
       </c>
-      <c r="F19" s="16">
+      <c r="F19" s="13">
         <v>0.1</v>
       </c>
       <c r="H19" s="6">
         <v>0.1</v>
       </c>
-      <c r="J19" s="16">
+      <c r="J19" s="13">
         <v>0.1</v>
       </c>
-      <c r="L19" s="15"/>
+      <c r="L19" s="12"/>
       <c r="M19">
         <v>0.05</v>
       </c>
     </row>
-    <row r="21" spans="1:13" x14ac:dyDescent="0.15">
+    <row r="21" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A21" s="7" t="s">
         <v>62</v>
       </c>
     </row>
-    <row r="22" spans="1:13" x14ac:dyDescent="0.15">
+    <row r="22" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A22" s="7" t="s">
         <v>63</v>
       </c>
     </row>
-    <row r="23" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="A23" s="1" t="s">
+    <row r="23" spans="1:14" x14ac:dyDescent="0.15">
+      <c r="A23" s="7" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="24" spans="1:14" x14ac:dyDescent="0.15">
+      <c r="A24" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="B23" s="1" t="s">
+      <c r="B24" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="C23" s="9" t="s">
+      <c r="C24" s="16" t="s">
         <v>23</v>
       </c>
-      <c r="D23" s="9"/>
-      <c r="E23" s="9"/>
-      <c r="F23" s="9"/>
-      <c r="G23" s="9" t="s">
+      <c r="D24" s="16"/>
+      <c r="E24" s="16"/>
+      <c r="F24" s="16"/>
+      <c r="G24" s="16" t="s">
         <v>36</v>
       </c>
-      <c r="H23" s="9"/>
-      <c r="I23" s="9"/>
-      <c r="J23" s="9"/>
-    </row>
-    <row r="24" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="A24" s="1" t="s">
+      <c r="H24" s="16"/>
+      <c r="I24" s="16"/>
+      <c r="J24" s="16"/>
+    </row>
+    <row r="25" spans="1:14" x14ac:dyDescent="0.15">
+      <c r="A25" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="B24" t="s">
+      <c r="B25" t="s">
         <v>47</v>
       </c>
-      <c r="C24" s="10"/>
-      <c r="D24" s="10"/>
-      <c r="E24" s="10"/>
-      <c r="F24" s="10"/>
-      <c r="G24" s="10"/>
-      <c r="H24" s="10"/>
-      <c r="I24" s="10"/>
-      <c r="J24" s="10"/>
-    </row>
-    <row r="25" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="A25" s="2" t="s">
+      <c r="C25" s="14"/>
+      <c r="D25" s="14"/>
+      <c r="E25" s="14"/>
+      <c r="F25" s="14"/>
+      <c r="G25" s="14"/>
+      <c r="H25" s="14"/>
+      <c r="I25" s="14"/>
+      <c r="J25" s="14"/>
+    </row>
+    <row r="26" spans="1:14" x14ac:dyDescent="0.15">
+      <c r="A26" s="2" t="s">
         <v>45</v>
       </c>
-      <c r="B25" s="2" t="s">
+      <c r="B26" s="2" t="s">
         <v>46</v>
       </c>
-      <c r="C25" s="12" t="s">
+      <c r="C26" s="15" t="s">
         <v>61</v>
       </c>
-      <c r="D25" s="12"/>
-      <c r="E25" s="12"/>
-      <c r="F25" s="12"/>
-      <c r="G25" s="12" t="s">
+      <c r="D26" s="15"/>
+      <c r="E26" s="15"/>
+      <c r="F26" s="15"/>
+      <c r="G26" s="15" t="s">
         <v>38</v>
       </c>
-      <c r="H25" s="12"/>
-      <c r="I25" s="12"/>
-      <c r="J25" s="12"/>
-      <c r="K25" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="26" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="A26" s="2" t="s">
-        <v>58</v>
-      </c>
-      <c r="B26" s="2" t="s">
-        <v>59</v>
-      </c>
-      <c r="C26" s="12" t="s">
-        <v>61</v>
-      </c>
-      <c r="D26" s="12"/>
-      <c r="E26" s="12"/>
-      <c r="F26" s="12"/>
-      <c r="G26" s="12" t="s">
-        <v>57</v>
-      </c>
-      <c r="H26" s="12"/>
-      <c r="I26" s="12"/>
-      <c r="J26" s="12"/>
+      <c r="H26" s="15"/>
+      <c r="I26" s="15"/>
+      <c r="J26" s="15"/>
       <c r="K26" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="27" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="A27" s="1" t="s">
+    <row r="27" spans="1:14" x14ac:dyDescent="0.15">
+      <c r="A27" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="B27" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="C27" s="15" t="s">
+        <v>61</v>
+      </c>
+      <c r="D27" s="15"/>
+      <c r="E27" s="15"/>
+      <c r="F27" s="15"/>
+      <c r="G27" s="15" t="s">
+        <v>57</v>
+      </c>
+      <c r="H27" s="15"/>
+      <c r="I27" s="15"/>
+      <c r="J27" s="15"/>
+      <c r="K27" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="28" spans="1:14" x14ac:dyDescent="0.15">
+      <c r="A28" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="B27" s="1" t="s">
+      <c r="B28" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="C27" s="10" t="s">
+      <c r="C28" s="14" t="s">
         <v>32</v>
       </c>
-      <c r="D27" s="10"/>
-      <c r="E27" s="10"/>
-      <c r="F27" s="10"/>
-      <c r="G27" s="10" t="s">
+      <c r="D28" s="14"/>
+      <c r="E28" s="14"/>
+      <c r="F28" s="14"/>
+      <c r="G28" s="14" t="s">
         <v>49</v>
       </c>
-      <c r="H27" s="10"/>
-      <c r="I27" s="10"/>
-      <c r="J27" s="10"/>
-    </row>
-    <row r="28" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="A28" s="1" t="s">
+      <c r="H28" s="14"/>
+      <c r="I28" s="14"/>
+      <c r="J28" s="14"/>
+    </row>
+    <row r="29" spans="1:14" x14ac:dyDescent="0.15">
+      <c r="A29" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="B28" s="1" t="s">
+      <c r="B29" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="C28" s="10" t="s">
+      <c r="C29" s="14" t="s">
         <v>33</v>
       </c>
-      <c r="D28" s="10"/>
-      <c r="E28" s="10"/>
-      <c r="F28" s="10"/>
-      <c r="G28" s="10" t="s">
+      <c r="D29" s="14"/>
+      <c r="E29" s="14"/>
+      <c r="F29" s="14"/>
+      <c r="G29" s="14" t="s">
         <v>48</v>
       </c>
-      <c r="H28" s="10"/>
-      <c r="I28" s="10"/>
-      <c r="J28" s="10"/>
-    </row>
-    <row r="29" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="A29" s="2" t="s">
+      <c r="H29" s="14"/>
+      <c r="I29" s="14"/>
+      <c r="J29" s="14"/>
+    </row>
+    <row r="30" spans="1:14" x14ac:dyDescent="0.15">
+      <c r="A30" s="2" t="s">
         <v>42</v>
       </c>
-      <c r="B29" s="2" t="s">
+      <c r="B30" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="C29" s="12" t="s">
+      <c r="C30" s="15" t="s">
         <v>34</v>
       </c>
-      <c r="D29" s="12"/>
-      <c r="E29" s="12"/>
-      <c r="F29" s="12"/>
-      <c r="G29" s="10" t="s">
+      <c r="D30" s="15"/>
+      <c r="E30" s="15"/>
+      <c r="F30" s="15"/>
+      <c r="G30" s="14" t="s">
         <v>50</v>
       </c>
-      <c r="H29" s="10"/>
-      <c r="I29" s="10"/>
-      <c r="J29" s="10"/>
-    </row>
-    <row r="30" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="A30" s="2" t="s">
+      <c r="H30" s="14"/>
+      <c r="I30" s="14"/>
+      <c r="J30" s="14"/>
+    </row>
+    <row r="31" spans="1:14" x14ac:dyDescent="0.15">
+      <c r="A31" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="B30" s="2" t="s">
+      <c r="B31" s="2" t="s">
         <v>41</v>
       </c>
-      <c r="C30" s="12" t="s">
+      <c r="C31" s="15" t="s">
         <v>51</v>
       </c>
-      <c r="D30" s="12"/>
-      <c r="E30" s="12"/>
-      <c r="F30" s="12"/>
-      <c r="G30" s="10" t="s">
+      <c r="D31" s="15"/>
+      <c r="E31" s="15"/>
+      <c r="F31" s="15"/>
+      <c r="G31" s="14" t="s">
         <v>48</v>
       </c>
-      <c r="H30" s="10"/>
-      <c r="I30" s="10"/>
-      <c r="J30" s="10"/>
-    </row>
-    <row r="31" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="A31" s="1" t="s">
+      <c r="H31" s="14"/>
+      <c r="I31" s="14"/>
+      <c r="J31" s="14"/>
+      <c r="K31" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="32" spans="1:14" x14ac:dyDescent="0.15">
+      <c r="A32" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="B31" s="1" t="s">
+      <c r="B32" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="C31" s="10" t="s">
+      <c r="C32" s="14" t="s">
         <v>35</v>
       </c>
-      <c r="D31" s="10"/>
-      <c r="E31" s="10"/>
-      <c r="F31" s="10"/>
-      <c r="G31" s="10" t="s">
+      <c r="D32" s="14"/>
+      <c r="E32" s="14"/>
+      <c r="F32" s="14"/>
+      <c r="G32" s="14" t="s">
         <v>37</v>
       </c>
-      <c r="H31" s="10"/>
-      <c r="I31" s="10"/>
-      <c r="J31" s="10"/>
+      <c r="H32" s="14"/>
+      <c r="I32" s="14"/>
+      <c r="J32" s="14"/>
     </row>
   </sheetData>
   <mergeCells count="18">
+    <mergeCell ref="C24:F24"/>
+    <mergeCell ref="C25:F25"/>
+    <mergeCell ref="C28:F28"/>
+    <mergeCell ref="C29:F29"/>
+    <mergeCell ref="C26:F26"/>
+    <mergeCell ref="G24:J24"/>
+    <mergeCell ref="G25:J25"/>
+    <mergeCell ref="G28:J28"/>
+    <mergeCell ref="G29:J29"/>
+    <mergeCell ref="G26:J26"/>
+    <mergeCell ref="G32:J32"/>
     <mergeCell ref="G31:J31"/>
+    <mergeCell ref="C27:F27"/>
+    <mergeCell ref="G27:J27"/>
+    <mergeCell ref="C30:F30"/>
+    <mergeCell ref="C32:F32"/>
+    <mergeCell ref="C31:F31"/>
     <mergeCell ref="G30:J30"/>
-    <mergeCell ref="C26:F26"/>
-    <mergeCell ref="G26:J26"/>
-    <mergeCell ref="C29:F29"/>
-    <mergeCell ref="C31:F31"/>
-    <mergeCell ref="C30:F30"/>
-    <mergeCell ref="G23:J23"/>
-    <mergeCell ref="G24:J24"/>
-    <mergeCell ref="G27:J27"/>
-    <mergeCell ref="G28:J28"/>
-    <mergeCell ref="G25:J25"/>
-    <mergeCell ref="G29:J29"/>
-    <mergeCell ref="C23:F23"/>
-    <mergeCell ref="C24:F24"/>
-    <mergeCell ref="C27:F27"/>
-    <mergeCell ref="C28:F28"/>
-    <mergeCell ref="C25:F25"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
